--- a/biology/Zoologie/Arktocara/Arktocara.xlsx
+++ b/biology/Zoologie/Arktocara/Arktocara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arktocara yakataga
 Arktocara est un genre éteint de dauphins d’eau douce qui a vécu lors de l’Oligocène supérieur, il y a environ 25 Ma (millions d'années).
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Arktocara dérive du grec ancien ἀρκτικός, arktikós, « pays de l'ours[1] ; du nord », et du latin cara, « tête », et fait référence au spécimen découvert, dont seul le crâne est connu, et ce dans la région la plus septentrionale où un platanistidé a été trouvé[2].
-Le nom spécifique yakataga fait référence au lieu de la découverte, le cap Yakataga (en)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Arktocara dérive du grec ancien ἀρκτικός, arktikós, « pays de l'ours ; du nord », et du latin cara, « tête », et fait référence au spécimen découvert, dont seul le crâne est connu, et ce dans la région la plus septentrionale où un platanistidé a été trouvé.
+Le nom spécifique yakataga fait référence au lieu de la découverte, le cap Yakataga (en).
 </t>
         </is>
       </c>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,7 +587,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Alexandra T. Boersma et Nicholas D. Pyenson, « Arktocara yakataga, a new fossil odontocete (Mammalia, Cetacea) from the Oligocene of Alaska and the antiquity of Platanistoidea », PeerJ, PeerJ Publishing (d), vol. 4,‎ 16 août 2016, e2321 (ISSN 2167-8359, OCLC 793828439, PMID 27602287, PMCID 4991871, DOI 10.7717/PEERJ.2321, lire en ligne)</t>
         </is>
